--- a/帮助文档/vmware-vspere-import.xlsx
+++ b/帮助文档/vmware-vspere-import.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ovf-import" sheetId="1" r:id="rId1"/>
-    <sheet name="file-copy-import" sheetId="2" r:id="rId2"/>
+    <sheet name="summary" sheetId="3" r:id="rId1"/>
+    <sheet name="ovf-import" sheetId="1" r:id="rId2"/>
+    <sheet name="file-copy-import" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>1 新建虚拟机</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,23 +96,130 @@
   <si>
     <t>7 完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ovf </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新建网卡</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拟机启动时选择I copy it,则虚拟机重置网卡。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>大小重新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>与原虚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拟机一致</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＣＰＵ　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>重新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＤＩＳＫ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ＮＥＴＷＯＲＫ</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -141,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1813,6 +1921,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="42.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A500"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
@@ -1892,11 +2062,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A231"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/帮助文档/vmware-vspere-import.xlsx
+++ b/帮助文档/vmware-vspere-import.xlsx
@@ -16,59 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
-  <si>
-    <t>1 新建虚拟机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 选择自定义模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 填写新建虚拟机名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 选择新建虚拟机的存储所在的存储器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 选择虚拟机版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 选择新建虚拟机的操作版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7 配置新建虚拟机的CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 配置新建虚拟机的内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 配置新建虚拟机的网卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10 选择SCSI控制器种类（Windows默认LSI Logic SAS, Linux默认VMWare准虚拟）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 配置新建虚拟机磁盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12 检查新建虚拟机配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13 新建完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>1 打开存储器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,130 +46,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ovf </t>
-    <phoneticPr fontId="2"/>
+    <t>1 选择ovf文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file</t>
-    <phoneticPr fontId="2"/>
+    <t>2 查看末班详细信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建网卡</t>
-    <phoneticPr fontId="2"/>
+    <t>3 虚拟机名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>虚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>拟机启动时选择I copy it,则虚拟机重置网卡。</t>
-    </r>
-    <phoneticPr fontId="2"/>
+    <t>4 虚拟机存储位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>大小重新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置</t>
-    </r>
-    <phoneticPr fontId="2"/>
+    <t>5 虚拟磁盘格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>与原虚</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>拟机一致</t>
-    </r>
-    <phoneticPr fontId="2"/>
+    <t>6 检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ＣＰＵ　</t>
-    <phoneticPr fontId="2"/>
+    <t>7 部署中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>重新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设置</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ＤＩＳＫ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ＮＥＴＷＯＲＫ</t>
-    <phoneticPr fontId="2"/>
+    <t>8 部署完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -249,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -271,111 +151,52 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21908</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect b="5207"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="683559" y="168088"/>
-          <a:ext cx="13009525" cy="6936442"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="矩形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1434353" y="1490382"/>
-          <a:ext cx="2241176" cy="246530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>67298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680357" y="353786"/>
+          <a:ext cx="6933334" cy="5904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129762</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>67298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -388,7 +209,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680357" y="7783286"/>
+          <a:off x="680357" y="6545036"/>
           <a:ext cx="6933334" cy="5904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -402,18 +223,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>67298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="20" name="图片 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -426,7 +247,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680357" y="13974536"/>
+          <a:off x="680357" y="12736286"/>
           <a:ext cx="6933334" cy="5904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -440,18 +261,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>67298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="21" name="图片 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -464,7 +285,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680357" y="20165786"/>
+          <a:off x="680357" y="18927536"/>
           <a:ext cx="6933334" cy="5904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -478,18 +299,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>67298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="22" name="图片 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -502,7 +323,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680357" y="26357036"/>
+          <a:off x="680357" y="25118786"/>
           <a:ext cx="6933334" cy="5904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -516,18 +337,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>67298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="23" name="图片 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -540,7 +361,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680357" y="32548286"/>
+          <a:off x="680357" y="31310036"/>
           <a:ext cx="6933334" cy="5904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -554,18 +375,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>67298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>341071</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>69167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -578,32 +399,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680357" y="38739536"/>
-          <a:ext cx="6933334" cy="5904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>255</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>288</xdr:row>
-      <xdr:rowOff>67298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+          <a:off x="680357" y="37501286"/>
+          <a:ext cx="3742857" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>341071</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>9369</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -616,32 +437,32 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680357" y="44930786"/>
-          <a:ext cx="6933334" cy="5904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>290</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>323</xdr:row>
-      <xdr:rowOff>67298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+          <a:off x="680357" y="39800893"/>
+          <a:ext cx="3742857" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>82739</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>34513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -654,235 +475,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="680357" y="51122036"/>
-          <a:ext cx="6933334" cy="5904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>325</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>358</xdr:row>
-      <xdr:rowOff>67298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="680357" y="57313286"/>
-          <a:ext cx="6933334" cy="5904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>360</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>393</xdr:row>
-      <xdr:rowOff>67298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="680357" y="63504536"/>
-          <a:ext cx="6933334" cy="5904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>395</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>428</xdr:row>
-      <xdr:rowOff>67298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="680357" y="69695786"/>
-          <a:ext cx="6933334" cy="5904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>430</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>463</xdr:row>
-      <xdr:rowOff>67298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="图片 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="680357" y="75887036"/>
-          <a:ext cx="6933334" cy="5904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>465</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129762</xdr:colOff>
-      <xdr:row>498</xdr:row>
-      <xdr:rowOff>67298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="680357" y="82078286"/>
-          <a:ext cx="6933334" cy="5904762"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>500</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>82739</xdr:colOff>
-      <xdr:row>539</xdr:row>
-      <xdr:rowOff>34513</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="680357" y="88269536"/>
+          <a:off x="680357" y="41392929"/>
           <a:ext cx="13009525" cy="6933334"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1921,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1933,49 +1526,7 @@
     <col min="3" max="3" width="20.75" customWidth="1"/>
     <col min="4" max="4" width="42.875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1983,7 +1534,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A500"/>
+  <dimension ref="A2:A225"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
@@ -1991,67 +1542,42 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A220" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A255" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A290" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A325" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A360" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A465" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A500" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2072,37 +1598,37 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/帮助文档/vmware-vspere-import.xlsx
+++ b/帮助文档/vmware-vspere-import.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="3" r:id="rId1"/>
     <sheet name="ovf-import" sheetId="1" r:id="rId2"/>
     <sheet name="file-copy-import" sheetId="2" r:id="rId3"/>
+    <sheet name="Japanese" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1183,6 +1184,693 @@
         <a:xfrm>
           <a:off x="683559" y="43366765"/>
           <a:ext cx="13009525" cy="6933334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>360102</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>76827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="7227794"/>
+          <a:ext cx="5828572" cy="3942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>325063</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>157213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="11430000"/>
+          <a:ext cx="3742857" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>325063</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>71002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="13447059"/>
+          <a:ext cx="3742857" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>416342</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>167374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="14959853"/>
+          <a:ext cx="8619048" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>492554</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="1637" t="1378" b="6852"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="21011029"/>
+          <a:ext cx="12796613" cy="6712325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97746</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>25512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="28070735"/>
+          <a:ext cx="6933334" cy="6580953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352733</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>33047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="34962353"/>
+          <a:ext cx="6504762" cy="4571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97746</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>25512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="39836912"/>
+          <a:ext cx="6933334" cy="6580953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97746</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>25512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="46560441"/>
+          <a:ext cx="6933334" cy="6580953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97746</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>25512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="53283971"/>
+          <a:ext cx="6933334" cy="6580953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97746</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>25512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="60175588"/>
+          <a:ext cx="6933334" cy="6580953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97746</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>25512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="67067206"/>
+          <a:ext cx="6933334" cy="6580953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>440</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>97746</xdr:colOff>
+      <xdr:row>479</xdr:row>
+      <xdr:rowOff>25512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="73958824"/>
+          <a:ext cx="6933334" cy="6580953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>325063</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>157212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="80850441"/>
+          <a:ext cx="3742857" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>325063</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>157212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="83035588"/>
+          <a:ext cx="3742857" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>325063</xdr:colOff>
+      <xdr:row>513</xdr:row>
+      <xdr:rowOff>71001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="85052647"/>
+          <a:ext cx="3742857" cy="1247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>515</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495942</xdr:colOff>
+      <xdr:row>555</xdr:row>
+      <xdr:rowOff>280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="86565441"/>
+          <a:ext cx="12800001" cy="6723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>492554</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:srcRect l="1637" t="1379" b="6851"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="336176"/>
+          <a:ext cx="12796613" cy="6712324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1637,4 +2325,21 @@
   <pageSetup paperSize="9" scale="18" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>